--- a/data/TopOnePercent/Henan Normal University.xlsx
+++ b/data/TopOnePercent/Henan Normal University.xlsx
@@ -184,16 +184,16 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>2147.0</v>
+        <v>2048.0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>27839.0</v>
+        <v>26565.0</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>12.97</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="8">
@@ -206,16 +206,16 @@
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>689.0</v>
+        <v>697.0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>10841.0</v>
+        <v>11319.0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>15.73</v>
+        <v>16.24</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="9">
@@ -228,16 +228,16 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>411.0</v>
+        <v>418.0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>4348.0</v>
+        <v>3633.0</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>10.58</v>
+        <v>8.69</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="10">
@@ -250,22 +250,22 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>7000.0</v>
+        <v>6804.0</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>70703.0</v>
+        <v>67684.0</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>10.1</v>
+        <v>9.95</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>86.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Copyright © 2019 Clarivate Analytics</t>
+          <t>Copyright © 2020 Clarivate Analytics</t>
         </is>
       </c>
     </row>
